--- a/Data_preparation/datasets/final_data/SOUNDHOUND_AI_INC_A.xlsx
+++ b/Data_preparation/datasets/final_data/SOUNDHOUND_AI_INC_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,60 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -706,22 +652,22 @@
         <v>44196</v>
       </c>
       <c r="D2">
-        <v>29.91399955749512</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="E2">
-        <v>28.95000076293945</v>
+        <v>6.5</v>
       </c>
       <c r="F2">
-        <v>31.0620002746582</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G2">
-        <v>27.46199989318848</v>
+        <v>5.75</v>
       </c>
       <c r="H2">
-        <v>766266033</v>
+        <v>375150890</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-27281000</v>
@@ -783,22 +729,22 @@
         <v>44286</v>
       </c>
       <c r="D3">
-        <v>529.9299926757812</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="E3">
-        <v>513.469970703125</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>563.5599975585938</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G3">
-        <v>499</v>
+        <v>5.75</v>
       </c>
       <c r="H3">
-        <v>424926346</v>
+        <v>375150890</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>130548000</v>
@@ -881,22 +827,22 @@
         <v>44377</v>
       </c>
       <c r="D4">
-        <v>46.47724219552952</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="E4">
-        <v>48.50979995727539</v>
+        <v>6.5</v>
       </c>
       <c r="F4">
-        <v>48.75511095753174</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G4">
-        <v>45.85521015250949</v>
+        <v>5.75</v>
       </c>
       <c r="H4">
-        <v>3953196953</v>
+        <v>375150890</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>131208000</v>
@@ -979,22 +925,22 @@
         <v>44469</v>
       </c>
       <c r="D5">
-        <v>138.916410444292</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="E5">
-        <v>146.6503143310547</v>
+        <v>6.5</v>
       </c>
       <c r="F5">
-        <v>149.9494520691154</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G5">
-        <v>135.3627448332334</v>
+        <v>5.75</v>
       </c>
       <c r="H5">
-        <v>14840390000</v>
+        <v>375150890</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>173736950</v>
@@ -1083,22 +1029,22 @@
         <v>44561</v>
       </c>
       <c r="D6">
-        <v>17.05999946594238</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="E6">
-        <v>15.57999992370606</v>
+        <v>6.5</v>
       </c>
       <c r="F6">
-        <v>19.65999984741211</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G6">
-        <v>13.14000034332275</v>
+        <v>5.75</v>
       </c>
       <c r="H6">
-        <v>250599325</v>
+        <v>375150890</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>179848300</v>
@@ -1196,22 +1142,22 @@
         <v>44651</v>
       </c>
       <c r="D7">
-        <v>151.2200012207031</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="E7">
-        <v>119.3099975585938</v>
+        <v>6.5</v>
       </c>
       <c r="F7">
-        <v>161.6100006103516</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="G7">
-        <v>118.879997253418</v>
+        <v>5.75</v>
       </c>
       <c r="H7">
-        <v>168459019</v>
+        <v>375150890</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1967902958</v>
@@ -1312,22 +1258,22 @@
         <v>44742</v>
       </c>
       <c r="D8">
-        <v>3.200000047683716</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="E8">
-        <v>3.930000066757202</v>
+        <v>3.5</v>
       </c>
       <c r="F8">
-        <v>4.539999961853027</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="G8">
-        <v>3.109999895095825</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="H8">
-        <v>448228270</v>
+        <v>375150890</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>525668442</v>
@@ -1428,22 +1374,22 @@
         <v>44834</v>
       </c>
       <c r="D9">
-        <v>254.5</v>
+        <v>3.369999885559082</v>
       </c>
       <c r="E9">
-        <v>227.5399932861328</v>
+        <v>2.710000038146973</v>
       </c>
       <c r="F9">
-        <v>257.5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>198.5899963378907</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
-        <v>3325150886</v>
+        <v>375150890</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>645922151</v>
@@ -1544,22 +1490,22 @@
         <v>44926</v>
       </c>
       <c r="D10">
-        <v>26.71999931335449</v>
+        <v>1.75</v>
       </c>
       <c r="E10">
-        <v>28.72999954223633</v>
+        <v>1.990000009536743</v>
       </c>
       <c r="F10">
-        <v>29.72999954223633</v>
+        <v>2.490000009536743</v>
       </c>
       <c r="G10">
-        <v>26.64999961853028</v>
+        <v>0.9700000286102296</v>
       </c>
       <c r="H10">
-        <v>178998669</v>
+        <v>375150890</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>350308711</v>
@@ -1660,22 +1606,22 @@
         <v>45016</v>
       </c>
       <c r="D11">
-        <v>261.1884929516806</v>
+        <v>2.759999990463257</v>
       </c>
       <c r="E11">
-        <v>225.4617156982422</v>
+        <v>2.660000085830688</v>
       </c>
       <c r="F11">
-        <v>262.5264343168398</v>
+        <v>3.345000028610229</v>
       </c>
       <c r="G11">
-        <v>223.9783523558658</v>
+        <v>2.224999904632568</v>
       </c>
       <c r="H11">
-        <v>60498713</v>
+        <v>375150890</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>606949160</v>
@@ -1776,22 +1722,22 @@
         <v>45107</v>
       </c>
       <c r="D12">
-        <v>18.42000007629395</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="E12">
-        <v>19.04000091552734</v>
+        <v>2.329999923706055</v>
       </c>
       <c r="F12">
-        <v>19.38999938964844</v>
+        <v>4.748000144958496</v>
       </c>
       <c r="G12">
-        <v>17.57999992370605</v>
+        <v>2.075000047683716</v>
       </c>
       <c r="H12">
-        <v>260676335</v>
+        <v>375150890</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>987128479</v>
@@ -1892,22 +1838,22 @@
         <v>45199</v>
       </c>
       <c r="D13">
-        <v>62.6169871617784</v>
+        <v>2.069999933242798</v>
       </c>
       <c r="E13">
-        <v>64.67326354980469</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="F13">
-        <v>66.63478202323152</v>
+        <v>2.089999914169312</v>
       </c>
       <c r="G13">
-        <v>60.75970456328059</v>
+        <v>1.490000009536743</v>
       </c>
       <c r="H13">
-        <v>212968277</v>
+        <v>375150890</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>483816923</v>
@@ -2008,22 +1954,22 @@
         <v>45291</v>
       </c>
       <c r="D14">
-        <v>1152.400024414062</v>
+        <v>2.130000114440918</v>
       </c>
       <c r="E14">
-        <v>1198.829956054688</v>
+        <v>1.659999966621399</v>
       </c>
       <c r="F14">
-        <v>1307.140014648438</v>
+        <v>2.176000118255615</v>
       </c>
       <c r="G14">
-        <v>1113.18994140625</v>
+        <v>1.649999976158142</v>
       </c>
       <c r="H14">
-        <v>24003656</v>
+        <v>375150890</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>523479501</v>
@@ -2124,22 +2070,22 @@
         <v>45382</v>
       </c>
       <c r="D15">
-        <v>104.6600036621094</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="E15">
-        <v>92.98000335693359</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F15">
-        <v>105.0100021362305</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="G15">
-        <v>90.66999816894533</v>
+        <v>3.5</v>
       </c>
       <c r="H15">
-        <v>168459019</v>
+        <v>375150890</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1820685936</v>
@@ -2240,22 +2186,22 @@
         <v>45473</v>
       </c>
       <c r="D16">
-        <v>53.97000122070312</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="E16">
-        <v>52.63999938964844</v>
+        <v>5.090000152587891</v>
       </c>
       <c r="F16">
-        <v>65.87999725341797</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="G16">
-        <v>50.29000091552734</v>
+        <v>3.819999933242798</v>
       </c>
       <c r="H16">
-        <v>42689006</v>
+        <v>375150890</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1300221611</v>
@@ -2356,22 +2302,22 @@
         <v>45565</v>
       </c>
       <c r="D17">
-        <v>36.50313191135645</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="E17">
-        <v>39.63111877441406</v>
+        <v>5.03000020980835</v>
       </c>
       <c r="F17">
-        <v>41.15769383693995</v>
+        <v>6.25</v>
       </c>
       <c r="G17">
-        <v>34.26814654717644</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H17">
-        <v>171080665</v>
+        <v>375150890</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1671694312</v>
@@ -2472,22 +2418,22 @@
         <v>45657</v>
       </c>
       <c r="D18">
-        <v>12.96000003814697</v>
+        <v>20.47500038146973</v>
       </c>
       <c r="E18">
-        <v>14.22000026702881</v>
+        <v>14.14999961853027</v>
       </c>
       <c r="F18">
-        <v>15.34500026702881</v>
+        <v>22.85000038146973</v>
       </c>
       <c r="G18">
-        <v>12.61999988555908</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="H18">
-        <v>453568899</v>
+        <v>375150890</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>7335844464</v>
@@ -2588,22 +2534,22 @@
         <v>45747</v>
       </c>
       <c r="D19">
-        <v>187.8600006103516</v>
+        <v>8.270000457763672</v>
       </c>
       <c r="E19">
-        <v>184.4199981689453</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="F19">
-        <v>198.3399963378907</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="G19">
-        <v>161.3800048828125</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="H19">
-        <v>10664912097</v>
+        <v>375150890</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3239568777</v>
@@ -2704,22 +2650,22 @@
         <v>45838</v>
       </c>
       <c r="D20">
-        <v>105.0804770925983</v>
+        <v>10.52499961853027</v>
       </c>
       <c r="E20">
-        <v>103.1780242919922</v>
+        <v>10.32999992370606</v>
       </c>
       <c r="F20">
-        <v>109.3114367486601</v>
+        <v>13.55500030517578</v>
       </c>
       <c r="G20">
-        <v>101.4440230697358</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="H20">
-        <v>199618386</v>
+        <v>375150890</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>4310609479</v>
